--- a/data/pc_agent/test_02_customer_create.xlsx
+++ b/data/pc_agent/test_02_customer_create.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanwl/PycharmProjects/UIFrame/data/pc_agent/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanwl/Documents/work/PythonScript/UIFrame/data/pc_agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E8A53F-6A0A-7742-AC5B-1B2BB3B5B66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17671FB7-5D1E-604F-B7AF-F45095AD24F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{F7D87536-ADB4-F746-8A17-AA3729FB405D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" xr2:uid="{F7D87536-ADB4-F746-8A17-AA3729FB405D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,19 +120,19 @@
   <si>
     <t>customer_source=source,
 customer_name=random_name,
-customer_phone_master=18700001234,
+customer_phone_master=random_unique_customer_phone1,
 customer_property=demander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>customer_source=source,
 customer_name=random_name,
-customer_phone_master=random_unique_customer_phone1,
+customer_phone_master=random_unique_customer_phone,
 customer_property=demander</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +503,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -589,13 +589,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51">
+    <row r="2" spans="1:3" ht="34">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -606,7 +606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="68">
+    <row r="3" spans="1:3" ht="34">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -617,7 +617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="85">
+    <row r="4" spans="1:3" ht="34">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -628,7 +628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="85">
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" t="s">
         <v>18</v>
       </c>

--- a/data/pc_agent/test_02_customer_create.xlsx
+++ b/data/pc_agent/test_02_customer_create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanwl/Documents/work/PythonScript/UIFrame/data/pc_agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17671FB7-5D1E-604F-B7AF-F45095AD24F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309E9E07-035C-C84C-A728-47E7913306B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" xr2:uid="{F7D87536-ADB4-F746-8A17-AA3729FB405D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>用例名称</t>
   </si>
@@ -59,15 +59,6 @@
   </si>
   <si>
     <t>请求参数</t>
-  </si>
-  <si>
-    <t>返回信息</t>
-  </si>
-  <si>
-    <t>使用有效管理员账号登录</t>
-  </si>
-  <si>
-    <t>我自有的房源</t>
   </si>
   <si>
     <t>使用有效普通账号登录</t>
@@ -133,6 +124,55 @@
 customer_name=random_name,
 customer_phone_master=random_unique_customer_phone,
 customer_property=demander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常创建客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建成功后的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户创建成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请完善信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_source=source,
+customer_name=,
+customer_phone_master=random_unique_customer_phone,
+customer_property=demander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_source=source,
+customer_name=random_name,
+customer_phone_master=,
+customer_property=demander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_source=source,
+customer_name=random_name,
+customer_phone_master=random_unique_customer_phone,
+customer_property=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户归属为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户主手机号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户姓名为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,15 +540,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76F3CA2-4A34-3345-BA71-C7BE0BCA22E1}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="59.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17">
@@ -516,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -540,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -551,18 +593,51 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="68">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
+    </row>
+    <row r="7" spans="1:3" ht="68">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="68">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="68">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -586,57 +661,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="68">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/pc_agent/test_02_customer_create.xlsx
+++ b/data/pc_agent/test_02_customer_create.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanwl/Documents/work/PythonScript/UIFrame/data/pc_agent/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanwl/PycharmProjects/UIFrame/data/pc_agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309E9E07-035C-C84C-A728-47E7913306B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD637F0-36FA-A341-9025-307CB34FFC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" xr2:uid="{F7D87536-ADB4-F746-8A17-AA3729FB405D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{F7D87536-ADB4-F746-8A17-AA3729FB405D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建成功后的页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户创建成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +169,10 @@
   </si>
   <si>
     <t>客户姓名为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="68">
@@ -604,40 +604,40 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="68">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="68">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
